--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125071a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125071a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>coeficientes de variação das estimativas de pessoas de 10 anos ou mais de idade que não procuraram a polícia em decorrência do último furto que foram vítimas, no período de referência de 365 dias (%)</t>
   </si>
@@ -40,16 +40,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -500,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,28 +559,46 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>2.014257667130146</v>
+      </c>
+      <c r="C5">
+        <v>3.52088832680917</v>
+      </c>
+      <c r="D5">
+        <v>3.104353901762659</v>
+      </c>
+      <c r="E5">
+        <v>3.215008490373267</v>
+      </c>
+      <c r="F5">
+        <v>4.009031393485444</v>
+      </c>
+      <c r="G5">
+        <v>4.396994793608123</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2.014257667130146</v>
+        <v>5.908246495210419</v>
       </c>
       <c r="C6">
-        <v>3.52088832680917</v>
+        <v>8.658098942545079</v>
       </c>
       <c r="D6">
-        <v>3.104353901762659</v>
+        <v>10.70784010384916</v>
       </c>
       <c r="E6">
-        <v>3.215008490373267</v>
+        <v>9.473253186124884</v>
       </c>
       <c r="F6">
-        <v>4.009031393485444</v>
+        <v>13.24662503535222</v>
       </c>
       <c r="G6">
-        <v>4.396994793608123</v>
+        <v>14.2685982705951</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -594,50 +606,68 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>5.908246495210419</v>
+        <v>4.934801529771637</v>
       </c>
       <c r="C7">
-        <v>8.658098942545079</v>
+        <v>8.242985325677912</v>
       </c>
       <c r="D7">
-        <v>10.70784010384916</v>
+        <v>8.789568090140726</v>
       </c>
       <c r="E7">
-        <v>9.473253186124884</v>
+        <v>6.308325723215301</v>
       </c>
       <c r="F7">
-        <v>13.24662503535222</v>
+        <v>9.378366768590839</v>
       </c>
       <c r="G7">
-        <v>14.2685982705951</v>
+        <v>13.03936104833612</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>8.843222435436187</v>
+      </c>
+      <c r="C8">
+        <v>21.62459386420392</v>
+      </c>
+      <c r="D8">
+        <v>15.00836467018766</v>
+      </c>
+      <c r="E8">
+        <v>16.85256598503319</v>
+      </c>
+      <c r="F8">
+        <v>19.45494020971662</v>
+      </c>
+      <c r="G8">
+        <v>22.8575035176324</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>4.934801529771637</v>
+        <v>13.23515243762343</v>
       </c>
       <c r="C9">
-        <v>8.242985325677912</v>
+        <v>24.4595091173821</v>
       </c>
       <c r="D9">
-        <v>8.789568090140726</v>
+        <v>14.41070728454844</v>
       </c>
       <c r="E9">
-        <v>6.308325723215301</v>
+        <v>17.5155691710663</v>
       </c>
       <c r="F9">
-        <v>9.378366768590839</v>
+        <v>51.43820642548654</v>
       </c>
       <c r="G9">
-        <v>13.03936104833612</v>
+        <v>18.43519409032358</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -645,22 +675,22 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>8.843222435436187</v>
+        <v>13.34179211336968</v>
       </c>
       <c r="C10">
-        <v>21.62459386420392</v>
+        <v>19.07129341508306</v>
       </c>
       <c r="D10">
-        <v>15.00836467018766</v>
+        <v>24.58557232197626</v>
       </c>
       <c r="E10">
-        <v>16.85256598503319</v>
+        <v>18.54606458441726</v>
       </c>
       <c r="F10">
-        <v>19.45494020971662</v>
+        <v>27.20332759449109</v>
       </c>
       <c r="G10">
-        <v>22.8575035176324</v>
+        <v>37.00046488427284</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -668,22 +698,22 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>13.23515243762343</v>
+        <v>11.13014878967585</v>
       </c>
       <c r="C11">
-        <v>24.4595091173821</v>
+        <v>19.97222193687052</v>
       </c>
       <c r="D11">
-        <v>14.41070728454844</v>
+        <v>30.66654719546119</v>
       </c>
       <c r="E11">
-        <v>17.5155691710663</v>
+        <v>23.71389443514547</v>
       </c>
       <c r="F11">
-        <v>51.43820642548654</v>
+        <v>47.30116980106558</v>
       </c>
       <c r="G11">
-        <v>18.43519409032358</v>
+        <v>42.05572306745817</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -691,22 +721,22 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>13.34179211336968</v>
+        <v>8.170072422304946</v>
       </c>
       <c r="C12">
-        <v>19.07129341508306</v>
+        <v>13.59302426239187</v>
       </c>
       <c r="D12">
-        <v>24.58557232197626</v>
+        <v>16.07544097750297</v>
       </c>
       <c r="E12">
-        <v>18.54606458441726</v>
+        <v>8.819074923892506</v>
       </c>
       <c r="F12">
-        <v>27.20332759449109</v>
+        <v>13.45681608838987</v>
       </c>
       <c r="G12">
-        <v>37.00046488427284</v>
+        <v>24.39201943031685</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -714,22 +744,22 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>11.13014878967585</v>
+        <v>17.28703394484187</v>
       </c>
       <c r="C13">
-        <v>19.97222193687052</v>
+        <v>20.76506513501958</v>
       </c>
       <c r="D13">
-        <v>30.66654719546119</v>
+        <v>35.58553779018079</v>
       </c>
       <c r="E13">
-        <v>23.71389443514547</v>
+        <v>23.88980869784955</v>
       </c>
       <c r="F13">
-        <v>47.30116980106558</v>
+        <v>47.97750932518262</v>
       </c>
       <c r="G13">
-        <v>42.05572306745817</v>
+        <v>47.09498159784854</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -737,22 +767,22 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>8.170072422304946</v>
+        <v>12.83881144597014</v>
       </c>
       <c r="C14">
-        <v>13.59302426239187</v>
+        <v>17.32256192387082</v>
       </c>
       <c r="D14">
-        <v>16.07544097750297</v>
+        <v>23.88631943001876</v>
       </c>
       <c r="E14">
-        <v>8.819074923892506</v>
+        <v>22.92007909019064</v>
       </c>
       <c r="F14">
-        <v>13.45681608838987</v>
+        <v>26.62556440374769</v>
       </c>
       <c r="G14">
-        <v>24.39201943031685</v>
+        <v>25.50118778211896</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -760,22 +790,22 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>17.28703394484187</v>
+        <v>4.342060106712077</v>
       </c>
       <c r="C15">
-        <v>20.76506513501958</v>
+        <v>7.23129115237171</v>
       </c>
       <c r="D15">
-        <v>35.58553779018079</v>
+        <v>5.515440952170144</v>
       </c>
       <c r="E15">
-        <v>23.88980869784955</v>
+        <v>6.378264175472065</v>
       </c>
       <c r="F15">
-        <v>47.97750932518262</v>
+        <v>7.552853249136111</v>
       </c>
       <c r="G15">
-        <v>47.09498159784854</v>
+        <v>7.396305979916835</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -783,22 +813,22 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>12.83881144597014</v>
+        <v>19.81323008528295</v>
       </c>
       <c r="C16">
-        <v>17.32256192387082</v>
+        <v>26.36208932141951</v>
       </c>
       <c r="D16">
-        <v>23.88631943001876</v>
+        <v>21.56965026174971</v>
       </c>
       <c r="E16">
-        <v>22.92007909019064</v>
+        <v>29.112661696788</v>
       </c>
       <c r="F16">
-        <v>26.62556440374769</v>
+        <v>30.63527921644681</v>
       </c>
       <c r="G16">
-        <v>25.50118778211896</v>
+        <v>23.87704320850721</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -806,22 +836,22 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>4.342060106712077</v>
+        <v>13.12720276295997</v>
       </c>
       <c r="C17">
-        <v>7.23129115237171</v>
+        <v>16.65463193931794</v>
       </c>
       <c r="D17">
-        <v>5.515440952170144</v>
+        <v>25.88319215640272</v>
       </c>
       <c r="E17">
-        <v>6.378264175472065</v>
+        <v>25.99613553569653</v>
       </c>
       <c r="F17">
-        <v>7.552853249136111</v>
+        <v>21.06330335315775</v>
       </c>
       <c r="G17">
-        <v>7.396305979916835</v>
+        <v>23.70197019760155</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -829,22 +859,22 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>19.81323008528295</v>
+        <v>8.309307419489626</v>
       </c>
       <c r="C18">
-        <v>26.36208932141951</v>
+        <v>9.38097293507888</v>
       </c>
       <c r="D18">
-        <v>21.56965026174971</v>
+        <v>14.00516205177346</v>
       </c>
       <c r="E18">
-        <v>29.112661696788</v>
+        <v>8.466000389535187</v>
       </c>
       <c r="F18">
-        <v>30.63527921644681</v>
+        <v>20.46035293712878</v>
       </c>
       <c r="G18">
-        <v>23.87704320850721</v>
+        <v>15.39730513912372</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -852,22 +882,22 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>13.12720276295997</v>
+        <v>11.05725615445688</v>
       </c>
       <c r="C19">
-        <v>16.65463193931794</v>
+        <v>25.48861111746398</v>
       </c>
       <c r="D19">
-        <v>25.88319215640272</v>
+        <v>18.2830583314641</v>
       </c>
       <c r="E19">
-        <v>25.99613553569653</v>
+        <v>19.25471386045966</v>
       </c>
       <c r="F19">
-        <v>21.06330335315775</v>
+        <v>22.13528312578921</v>
       </c>
       <c r="G19">
-        <v>23.70197019760155</v>
+        <v>28.11420401465103</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -875,22 +905,22 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>8.309307419489626</v>
+        <v>13.8748311946529</v>
       </c>
       <c r="C20">
-        <v>9.38097293507888</v>
+        <v>17.58779567704181</v>
       </c>
       <c r="D20">
-        <v>14.00516205177346</v>
+        <v>20.9836356638882</v>
       </c>
       <c r="E20">
-        <v>8.466000389535187</v>
+        <v>20.5697249167328</v>
       </c>
       <c r="F20">
-        <v>20.46035293712878</v>
+        <v>31.97219066054323</v>
       </c>
       <c r="G20">
-        <v>15.39730513912372</v>
+        <v>43.98611939170299</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -898,22 +928,22 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>11.05725615445688</v>
+        <v>6.733900104201157</v>
       </c>
       <c r="C21">
-        <v>25.48861111746398</v>
+        <v>13.6377660266079</v>
       </c>
       <c r="D21">
-        <v>18.2830583314641</v>
+        <v>10.44866533360355</v>
       </c>
       <c r="E21">
-        <v>19.25471386045966</v>
+        <v>10.18668624473601</v>
       </c>
       <c r="F21">
-        <v>22.13528312578921</v>
+        <v>13.37948330135917</v>
       </c>
       <c r="G21">
-        <v>28.11420401465103</v>
+        <v>22.56802279555098</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -921,22 +951,22 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>13.8748311946529</v>
+        <v>12.82486801863669</v>
       </c>
       <c r="C22">
-        <v>17.58779567704181</v>
+        <v>25.06731299165886</v>
       </c>
       <c r="D22">
-        <v>20.9836356638882</v>
+        <v>22.40818046286908</v>
       </c>
       <c r="E22">
-        <v>20.5697249167328</v>
+        <v>24.14414040530033</v>
       </c>
       <c r="F22">
-        <v>31.97219066054323</v>
+        <v>34.17663606002309</v>
       </c>
       <c r="G22">
-        <v>43.98611939170299</v>
+        <v>47.08543253598915</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -944,22 +974,22 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>6.733900104201157</v>
+        <v>8.39702896757967</v>
       </c>
       <c r="C23">
-        <v>13.6377660266079</v>
+        <v>14.01644036640352</v>
       </c>
       <c r="D23">
-        <v>10.44866533360355</v>
+        <v>17.5078907499494</v>
       </c>
       <c r="E23">
-        <v>10.18668624473601</v>
+        <v>15.76183318634912</v>
       </c>
       <c r="F23">
-        <v>13.37948330135917</v>
+        <v>29.50561882237956</v>
       </c>
       <c r="G23">
-        <v>22.56802279555098</v>
+        <v>38.26686831220549</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -967,22 +997,22 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>12.82486801863669</v>
+        <v>6.16994745370471</v>
       </c>
       <c r="C24">
-        <v>25.06731299165886</v>
+        <v>9.17747614470386</v>
       </c>
       <c r="D24">
-        <v>22.40818046286908</v>
+        <v>9.596407344706741</v>
       </c>
       <c r="E24">
-        <v>24.14414040530033</v>
+        <v>12.51942544924456</v>
       </c>
       <c r="F24">
-        <v>34.17663606002309</v>
+        <v>9.958337139745234</v>
       </c>
       <c r="G24">
-        <v>47.08543253598915</v>
+        <v>12.16537371994305</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -990,22 +1020,22 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>8.39702896757967</v>
+        <v>3.265458702993843</v>
       </c>
       <c r="C25">
-        <v>14.01644036640352</v>
+        <v>5.622976097262534</v>
       </c>
       <c r="D25">
-        <v>17.5078907499494</v>
+        <v>5.885096125494991</v>
       </c>
       <c r="E25">
-        <v>15.76183318634912</v>
+        <v>5.714042953123823</v>
       </c>
       <c r="F25">
-        <v>29.50561882237956</v>
+        <v>6.405841412113602</v>
       </c>
       <c r="G25">
-        <v>38.26686831220549</v>
+        <v>7.208467285155818</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1013,22 +1043,22 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>6.16994745370471</v>
+        <v>6.089532139640232</v>
       </c>
       <c r="C26">
-        <v>9.17747614470386</v>
+        <v>9.666452749873148</v>
       </c>
       <c r="D26">
-        <v>9.596407344706741</v>
+        <v>10.26945594255087</v>
       </c>
       <c r="E26">
-        <v>12.51942544924456</v>
+        <v>9.753346142732767</v>
       </c>
       <c r="F26">
-        <v>9.958337139745234</v>
+        <v>8.618130578939061</v>
       </c>
       <c r="G26">
-        <v>12.16537371994305</v>
+        <v>12.04916490707465</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1036,22 +1066,22 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>3.265458702993843</v>
+        <v>10.32656467319058</v>
       </c>
       <c r="C27">
-        <v>5.622976097262534</v>
+        <v>21.50026322181926</v>
       </c>
       <c r="D27">
-        <v>5.885096125494991</v>
+        <v>15.48697466034046</v>
       </c>
       <c r="E27">
-        <v>5.714042953123823</v>
+        <v>20.87388637750195</v>
       </c>
       <c r="F27">
-        <v>6.405841412113602</v>
+        <v>20.7728412739909</v>
       </c>
       <c r="G27">
-        <v>7.208467285155818</v>
+        <v>28.81846600892825</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1059,22 +1089,22 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>6.089532139640232</v>
+        <v>6.279602567927438</v>
       </c>
       <c r="C28">
-        <v>9.666452749873148</v>
+        <v>12.48768681059023</v>
       </c>
       <c r="D28">
-        <v>10.26945594255087</v>
+        <v>13.18563632371061</v>
       </c>
       <c r="E28">
-        <v>9.753346142732767</v>
+        <v>13.04909856807495</v>
       </c>
       <c r="F28">
-        <v>8.618130578939061</v>
+        <v>11.9676342528267</v>
       </c>
       <c r="G28">
-        <v>12.04916490707465</v>
+        <v>14.4605731885619</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1082,22 +1112,22 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>10.32656467319058</v>
+        <v>5.019109768852158</v>
       </c>
       <c r="C29">
-        <v>21.50026322181926</v>
+        <v>8.547322581554784</v>
       </c>
       <c r="D29">
-        <v>15.48697466034046</v>
+        <v>8.93583137237855</v>
       </c>
       <c r="E29">
-        <v>20.87388637750195</v>
+        <v>8.518209888957186</v>
       </c>
       <c r="F29">
-        <v>20.7728412739909</v>
+        <v>12.75276715920683</v>
       </c>
       <c r="G29">
-        <v>28.81846600892825</v>
+        <v>11.29152306489622</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1105,22 +1135,22 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>6.279602567927438</v>
+        <v>4.070606305461197</v>
       </c>
       <c r="C30">
-        <v>12.48768681059023</v>
+        <v>7.501064627988859</v>
       </c>
       <c r="D30">
-        <v>13.18563632371061</v>
+        <v>6.465815397543364</v>
       </c>
       <c r="E30">
-        <v>13.04909856807495</v>
+        <v>7.053959015262519</v>
       </c>
       <c r="F30">
-        <v>11.9676342528267</v>
+        <v>9.141501251175205</v>
       </c>
       <c r="G30">
-        <v>14.4605731885619</v>
+        <v>9.379441708513584</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1128,22 +1158,22 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>5.019109768852158</v>
+        <v>5.707239463087815</v>
       </c>
       <c r="C31">
-        <v>8.547322581554784</v>
+        <v>11.41706470868489</v>
       </c>
       <c r="D31">
-        <v>8.93583137237855</v>
+        <v>11.27030802723063</v>
       </c>
       <c r="E31">
-        <v>8.518209888957186</v>
+        <v>10.15170662875336</v>
       </c>
       <c r="F31">
-        <v>12.75276715920683</v>
+        <v>15.29071478051572</v>
       </c>
       <c r="G31">
-        <v>11.29152306489622</v>
+        <v>15.66924464051056</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1151,22 +1181,22 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>4.070606305461197</v>
+        <v>9.669590435912678</v>
       </c>
       <c r="C32">
-        <v>7.501064627988859</v>
+        <v>14.80813227373916</v>
       </c>
       <c r="D32">
-        <v>6.465815397543364</v>
+        <v>16.40837402916509</v>
       </c>
       <c r="E32">
-        <v>7.053959015262519</v>
+        <v>18.17299745327945</v>
       </c>
       <c r="F32">
-        <v>9.141501251175205</v>
+        <v>20.87296788406376</v>
       </c>
       <c r="G32">
-        <v>9.379441708513584</v>
+        <v>16.39670784179658</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1174,22 +1204,22 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>5.707239463087815</v>
+        <v>6.772208708592908</v>
       </c>
       <c r="C33">
-        <v>11.41706470868489</v>
+        <v>12.3397465512114</v>
       </c>
       <c r="D33">
-        <v>11.27030802723063</v>
+        <v>8.672962024534268</v>
       </c>
       <c r="E33">
-        <v>10.15170662875336</v>
+        <v>10.08284338485614</v>
       </c>
       <c r="F33">
-        <v>15.29071478051572</v>
+        <v>13.27785916946832</v>
       </c>
       <c r="G33">
-        <v>15.66924464051056</v>
+        <v>13.83696666601008</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1197,22 +1227,22 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>9.669590435912678</v>
+        <v>3.673107631428608</v>
       </c>
       <c r="C34">
-        <v>14.80813227373916</v>
+        <v>6.639968796334957</v>
       </c>
       <c r="D34">
-        <v>16.40837402916509</v>
+        <v>6.447585616562796</v>
       </c>
       <c r="E34">
-        <v>18.17299745327945</v>
+        <v>7.177420251305467</v>
       </c>
       <c r="F34">
-        <v>20.87296788406376</v>
+        <v>9.468252134184391</v>
       </c>
       <c r="G34">
-        <v>16.39670784179658</v>
+        <v>10.27509146759516</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1220,22 +1250,22 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>6.772208708592908</v>
+        <v>8.269563194991848</v>
       </c>
       <c r="C35">
-        <v>12.3397465512114</v>
+        <v>16.59917367044482</v>
       </c>
       <c r="D35">
-        <v>8.672962024534268</v>
+        <v>16.02496324725549</v>
       </c>
       <c r="E35">
-        <v>10.08284338485614</v>
+        <v>16.05958484026053</v>
       </c>
       <c r="F35">
-        <v>13.27785916946832</v>
+        <v>17.80522974614294</v>
       </c>
       <c r="G35">
-        <v>13.83696666601008</v>
+        <v>19.26402042638794</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1243,22 +1273,22 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>3.673107631428608</v>
+        <v>9.170648048230808</v>
       </c>
       <c r="C36">
-        <v>6.639968796334957</v>
+        <v>15.372227484451</v>
       </c>
       <c r="D36">
-        <v>6.447585616562796</v>
+        <v>11.60944021003473</v>
       </c>
       <c r="E36">
-        <v>7.177420251305467</v>
+        <v>19.09126963359792</v>
       </c>
       <c r="F36">
-        <v>9.468252134184391</v>
+        <v>21.26023833083359</v>
       </c>
       <c r="G36">
-        <v>10.27509146759516</v>
+        <v>23.70444426566831</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1266,67 +1296,21 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>8.269563194991848</v>
+        <v>5.135824150470588</v>
       </c>
       <c r="C37">
-        <v>16.59917367044482</v>
+        <v>9.454571896472286</v>
       </c>
       <c r="D37">
-        <v>16.02496324725549</v>
+        <v>10.24146592231062</v>
       </c>
       <c r="E37">
-        <v>16.05958484026053</v>
+        <v>9.665248009467669</v>
       </c>
       <c r="F37">
-        <v>17.80522974614294</v>
+        <v>14.93077189901015</v>
       </c>
       <c r="G37">
-        <v>19.26402042638794</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>9.170648048230808</v>
-      </c>
-      <c r="C38">
-        <v>15.372227484451</v>
-      </c>
-      <c r="D38">
-        <v>11.60944021003473</v>
-      </c>
-      <c r="E38">
-        <v>19.09126963359792</v>
-      </c>
-      <c r="F38">
-        <v>21.26023833083359</v>
-      </c>
-      <c r="G38">
-        <v>23.70444426566831</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>5.135824150470588</v>
-      </c>
-      <c r="C39">
-        <v>9.454571896472286</v>
-      </c>
-      <c r="D39">
-        <v>10.24146592231062</v>
-      </c>
-      <c r="E39">
-        <v>9.665248009467669</v>
-      </c>
-      <c r="F39">
-        <v>14.93077189901015</v>
-      </c>
-      <c r="G39">
         <v>15.10840814994945</v>
       </c>
     </row>
